--- a/src/test/resources/ordersECC/ordersECC_US.xlsx
+++ b/src/test/resources/ordersECC/ordersECC_US.xlsx
@@ -8,19 +8,55 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ConsultantAdhocOrder" r:id="rId5" sheetId="2"/>
+    <sheet name="PCAdhocOrder" r:id="rId6" sheetId="3"/>
+    <sheet name="RCAdhocOrder" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+  <si>
+    <t>USER_EMAIL</t>
+  </si>
+  <si>
+    <t>ORDER_NUMBER</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>ITEM_QTY</t>
+  </si>
+  <si>
+    <t>CARD_TYPE</t>
+  </si>
+  <si>
+    <t>ORDER_DATE</t>
+  </si>
+  <si>
+    <t>TOTAL_PRICE</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,4 +375,130 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>